--- a/SDK/build/packList.xlsx
+++ b/SDK/build/packList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskWorkspace\项目开发\奥德赛世界\程序开发\OdysseyWorld\SDK\build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3849E9-32DC-4685-A755-2CD0425A4585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3E2B64-63BC-4C65-9091-6DB4BD3184C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="3960" windowWidth="19200" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LANGUAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>frame</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>python</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pyd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,18 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FolderPoint.cpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quantumRandom.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegistrySet.hpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FrameLibPoint.cpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>frame module</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,6 +131,30 @@
   </si>
   <si>
     <t>a1b1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXTENSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegistrySet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrameLibPoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +493,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -512,135 +512,135 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/SDK/build/packList.xlsx
+++ b/SDK/build/packList.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskWorkspace\项目开发\奥德赛世界\程序开发\OdysseyWorld\SDK\build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3E2B64-63BC-4C65-9091-6DB4BD3184C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5671110A-94C7-49EB-97B7-E3B554EE2264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="2080" windowWidth="19180" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -115,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>function module - compute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>frame module</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,6 +151,10 @@
   </si>
   <si>
     <t>FrameLibPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function module-compute</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -557,7 +557,7 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -565,7 +565,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -582,10 +582,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -599,10 +599,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -619,13 +619,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -637,10 +637,10 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
